--- a/excel/202307.xlsx
+++ b/excel/202307.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,23 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9A9A9"/>
+        <bgColor rgb="00A9A9A9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,178 +429,179 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>中文</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>英文</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>07/1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>07/2</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>07/3</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>07/4</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>07/5</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>07/6</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>07/7</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>07/8</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>07/9</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>07/10</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>07/11</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>07/12</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>07/13</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>07/14</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>07/15</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>07/16</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>07/17</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>07/18</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>07/19</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>07/20</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>07/21</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>07/22</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>07/23</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>07/24</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>07/25</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>07/26</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>07/27</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>07/28</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>07/29</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>07/30</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>07/31</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>

--- a/excel/202307.xlsx
+++ b/excel/202307.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>07/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>07/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>07/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>07/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>07/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>07/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>07/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>07/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>07/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>07/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>07/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>07/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>07/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>07/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>07/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>07/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>07/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>07/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>07/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>07/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>07/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>07/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>07/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>07/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>07/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>07/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>07/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>07/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>07/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>07/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>07/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -720,12 +725,12 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -735,27 +740,27 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -770,29 +775,34 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -807,27 +817,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -842,27 +852,27 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -877,27 +887,27 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>100</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -912,27 +922,27 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -947,24 +957,29 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>2180</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -974,27 +989,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1009,27 +1024,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1044,32 +1059,32 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1079,32 +1094,32 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1114,12 +1129,17 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2180</t>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>980</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1156,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1146,7 +1166,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1171,7 +1191,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1181,7 +1201,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1206,7 +1226,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1216,7 +1236,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1226,7 +1246,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1290,6 +1310,11 @@
         </is>
       </c>
       <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>1680</t>
         </is>
@@ -1308,7 +1333,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1423,17 +1448,17 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1448,7 +1473,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1458,10 +1483,15 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>700</t>
         </is>
@@ -1478,11 +1508,6 @@
           <t>07</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1490,34 +1515,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>240</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1525,34 +1550,34 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>240</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1560,19 +1585,19 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>280</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>100</t>
@@ -1580,14 +1605,14 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>380</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1595,34 +1620,34 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>380</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>380</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>380</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>380</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AF7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1630,10 +1655,15 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>380</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>5,680</t>
         </is>

--- a/excel/202307.xlsx
+++ b/excel/202307.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -745,27 +745,27 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>980</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1276,27 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1311,29 +1311,24 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2AA8D</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1348,27 +1343,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1383,27 +1378,27 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1418,27 +1413,27 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1453,27 +1448,27 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>520</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>520</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>520</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>520</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1488,184 +1483,12 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>520</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>700</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>5,680</t>
+          <t>6,660</t>
         </is>
       </c>
     </row>
